--- a/hyper_param_tuning/architectures_and_hypertuning.xlsx
+++ b/hyper_param_tuning/architectures_and_hypertuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesm/stock_lstm/hyper_param_tuning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EB554F-8FEA-8440-93BB-0536E8BE6B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703B0926-0884-384F-9C3D-740A73035253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{1AC054C2-41B9-094A-9D21-6F265B3DB880}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{1AC054C2-41B9-094A-9D21-6F265B3DB880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
   <si>
     <t xml:space="preserve"> True</t>
   </si>
@@ -96,15 +96,94 @@
   </si>
   <si>
     <t>Vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ct'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 't'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'n'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'c'</t>
+  </si>
+  <si>
+    <t>SARIMA</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>Using 30 repeats - given the stochastic nature of the MLP</t>
+  </si>
+  <si>
+    <t>CNN - LSTM</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Used 10 repeats for this only (Excludes HP tuning)</t>
+  </si>
+  <si>
+    <t>Used 2 repeats for this only (Excludes HP tuning)</t>
+  </si>
+  <si>
+    <t>Conv-LSTM</t>
+  </si>
+  <si>
+    <t>Results based on 7 runs (6 repeats) and excluding hyper parameter tuning</t>
+  </si>
+  <si>
+    <t>CNN with grid search</t>
+  </si>
+  <si>
+    <t>[12, 64, 3, 100, 1, 0] 8.651451837141547</t>
+  </si>
+  <si>
+    <t>[12, 64, 5, 100, 1, 0] 9.327028414080127</t>
+  </si>
+  <si>
+    <t>[12, 64, 3, 100, 64, 6] 10.392347184767726</t>
+  </si>
+  <si>
+    <t>[12, 100, 50, 150, 12] 11.989998543634885</t>
+  </si>
+  <si>
+    <t>[12, 100, 50, 32, 6] 12.79432968658157</t>
+  </si>
+  <si>
+    <t>[12, 100, 50, 150, 6] 12.814286174348798</t>
+  </si>
+  <si>
+    <t>LSTM with grid search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,8 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,18 +532,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192B99D4-B78A-0741-9FA5-F065CA963FC1}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -475,7 +560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -491,8 +576,14 @@
       <c r="H2">
         <v>8.1439507942709692</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -508,8 +599,11 @@
       <c r="H3">
         <v>8.1439507942709692</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -525,8 +619,11 @@
       <c r="H4">
         <v>8.1439507942709692</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -543,7 +640,7 @@
         <v>9.0283085979862197</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -559,8 +656,14 @@
       <c r="H6">
         <v>9.0283085979862197</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -585,8 +688,11 @@
       <c r="H7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -611,8 +717,11 @@
       <c r="H8">
         <v>7.9747011559886003</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -638,7 +747,7 @@
         <v>7.9747020586809603</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -664,7 +773,7 @@
         <v>7.9849600441330297</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -690,7 +799,7 @@
         <v>7.9862757178524699</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -716,7 +825,402 @@
         <v>8.0863137638619804</v>
       </c>
     </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>7.9796217806549103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>7.9902621697043603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>7.99091961967319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>8.0245938925332005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>8.0560989768742299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19">
+        <v>10.0843217061222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20">
+        <v>10.4729051069249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21">
+        <v>10.6467423018597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22">
+        <v>10.7264497955021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23">
+        <v>10.938435733626299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24">
+        <v>13.634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25">
+        <v>12.725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27">
+        <v>9.8840000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28">
+        <v>12.494999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" customHeight="1">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29">
+        <v>88.397999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16" customHeight="1">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30">
+        <v>99.515000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" customHeight="1">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31">
+        <v>88.397999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" customHeight="1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32">
+        <v>99.515000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" customHeight="1">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33">
+        <v>12.855</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34">
+        <v>10.128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35">
+        <v>9.4139999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36">
+        <v>10.958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37">
+        <v>9.6470000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38">
+        <v>11.284000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39">
+        <v>10.907999999999999</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B19:G23"/>
+    <mergeCell ref="B24:G28"/>
+    <mergeCell ref="B29:G30"/>
+    <mergeCell ref="B31:G32"/>
+    <mergeCell ref="B33:G39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hyper_param_tuning/architectures_and_hypertuning.xlsx
+++ b/hyper_param_tuning/architectures_and_hypertuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesm/stock_lstm/hyper_param_tuning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703B0926-0884-384F-9C3D-740A73035253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939CBEE6-51EE-CF49-A4B7-45FA204A8A1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{1AC054C2-41B9-094A-9D21-6F265B3DB880}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t xml:space="preserve"> True</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>LSTM with grid search</t>
+  </si>
+  <si>
+    <t>CNN Univariate multi sequence</t>
+  </si>
+  <si>
+    <t>cnn: [5.673] 3.6, 4.4, 5.2, 3.0, 3.6, 6.8, 9.9</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -823,6 +829,12 @@
       </c>
       <c r="H12">
         <v>8.0863137638619804</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13">
